--- a/power-query-sort-filter-rows-start.xlsx
+++ b/power-query-sort-filter-rows-start.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26216"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\olt-intro-to-excel-power-query\4-transforming-rows\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\blog-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA91C13F-5299-4175-A5A1-E4999CBF0685}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEA0E847-2E99-4775-9BE7-D53C153D1507}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{443EFEDC-43CD-434A-8399-6878D7B66EAE}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{443EFEDC-43CD-434A-8399-6878D7B66EAE}"/>
   </bookViews>
   <sheets>
     <sheet name="signups" sheetId="1" r:id="rId1"/>
-    <sheet name="roster" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>Dwight</t>
   </si>
@@ -86,36 +85,6 @@
   </si>
   <si>
     <t>Michael</t>
-  </si>
-  <si>
-    <t>Department</t>
-  </si>
-  <si>
-    <t>Signups</t>
-  </si>
-  <si>
-    <t>Sales</t>
-  </si>
-  <si>
-    <t>Jim, Dwight, Phyllis, Andy</t>
-  </si>
-  <si>
-    <t>Accounting</t>
-  </si>
-  <si>
-    <t>Kevin, Oscar</t>
-  </si>
-  <si>
-    <t>Warehouse</t>
-  </si>
-  <si>
-    <t>Daryl, Nate</t>
-  </si>
-  <si>
-    <t>Annex</t>
-  </si>
-  <si>
-    <t>Toby, Ryan, Kelly</t>
   </si>
 </sst>
 </file>
@@ -469,179 +438,120 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99BF0746-C973-4B62-9195-CEEE1C9A5680}">
   <dimension ref="A1:A24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="1" max="1" width="16.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1AF773A-E810-40DC-92BD-7980A1A22B45}">
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.85546875" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
